--- a/Book2.xlsx
+++ b/Book2.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\GitHub\Kaszcz\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{B966731D-26B3-4922-8A59-29761DAF113F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7183440C-C2AB-41A1-B2C1-063C497F3C62}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" xr2:uid="{2989C81E-8F57-4ADC-A9B1-D4D66B2E3046}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="79" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
   <si>
     <t>Album</t>
   </si>
@@ -72,9 +72,6 @@
   </si>
   <si>
     <t>Ocena</t>
-  </si>
-  <si>
-    <t>-</t>
   </si>
 </sst>
 </file>
@@ -429,8 +426,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E8FF5086-F690-4870-B6B3-C6D623B4DF3D}">
   <dimension ref="A1:L78"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="O9" sqref="O9"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="AC31" sqref="AC31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -489,12 +486,6 @@
       <c r="E2">
         <v>0</v>
       </c>
-      <c r="F2" t="s">
-        <v>12</v>
-      </c>
-      <c r="G2" t="s">
-        <v>12</v>
-      </c>
       <c r="H2">
         <v>7</v>
       </c>
@@ -565,12 +556,6 @@
       <c r="E4">
         <v>1</v>
       </c>
-      <c r="F4" t="s">
-        <v>12</v>
-      </c>
-      <c r="G4" t="s">
-        <v>12</v>
-      </c>
       <c r="H4">
         <v>0</v>
       </c>
@@ -641,9 +626,6 @@
       <c r="E6">
         <v>4</v>
       </c>
-      <c r="F6" t="s">
-        <v>12</v>
-      </c>
       <c r="G6">
         <v>0</v>
       </c>
@@ -717,9 +699,6 @@
       <c r="E8">
         <v>0</v>
       </c>
-      <c r="F8" t="s">
-        <v>12</v>
-      </c>
       <c r="G8">
         <v>3</v>
       </c>
@@ -755,9 +734,6 @@
       <c r="E9">
         <v>3</v>
       </c>
-      <c r="F9" t="s">
-        <v>12</v>
-      </c>
       <c r="G9">
         <v>0</v>
       </c>
@@ -793,12 +769,6 @@
       <c r="E10">
         <v>4</v>
       </c>
-      <c r="F10" t="s">
-        <v>12</v>
-      </c>
-      <c r="G10" t="s">
-        <v>12</v>
-      </c>
       <c r="H10">
         <v>0</v>
       </c>
@@ -869,9 +839,6 @@
       <c r="E12">
         <v>6</v>
       </c>
-      <c r="F12" t="s">
-        <v>12</v>
-      </c>
       <c r="G12">
         <v>5</v>
       </c>
@@ -907,9 +874,6 @@
       <c r="E13">
         <v>0</v>
       </c>
-      <c r="F13" t="s">
-        <v>12</v>
-      </c>
       <c r="G13">
         <v>0</v>
       </c>
@@ -945,9 +909,6 @@
       <c r="E14">
         <v>2</v>
       </c>
-      <c r="F14" t="s">
-        <v>12</v>
-      </c>
       <c r="G14">
         <v>5</v>
       </c>
@@ -989,9 +950,6 @@
       <c r="G15">
         <v>3</v>
       </c>
-      <c r="H15" t="s">
-        <v>12</v>
-      </c>
       <c r="I15">
         <v>5</v>
       </c>
@@ -1059,12 +1017,6 @@
       <c r="E17">
         <v>1</v>
       </c>
-      <c r="F17" t="s">
-        <v>12</v>
-      </c>
-      <c r="G17" t="s">
-        <v>12</v>
-      </c>
       <c r="H17">
         <v>3</v>
       </c>
@@ -1138,9 +1090,6 @@
       <c r="F19">
         <v>2</v>
       </c>
-      <c r="G19" t="s">
-        <v>12</v>
-      </c>
       <c r="H19">
         <v>1</v>
       </c>
@@ -1217,9 +1166,6 @@
       <c r="G21">
         <v>3</v>
       </c>
-      <c r="H21" t="s">
-        <v>12</v>
-      </c>
       <c r="I21">
         <v>3</v>
       </c>
@@ -1284,9 +1230,6 @@
       <c r="D23">
         <v>7</v>
       </c>
-      <c r="E23" t="s">
-        <v>12</v>
-      </c>
       <c r="F23">
         <v>2</v>
       </c>
@@ -1401,12 +1344,6 @@
       <c r="E26">
         <v>0</v>
       </c>
-      <c r="F26" t="s">
-        <v>12</v>
-      </c>
-      <c r="G26" t="s">
-        <v>12</v>
-      </c>
       <c r="H26">
         <v>5</v>
       </c>
@@ -1515,12 +1452,6 @@
       <c r="E29">
         <v>5</v>
       </c>
-      <c r="F29" t="s">
-        <v>12</v>
-      </c>
-      <c r="G29" t="s">
-        <v>12</v>
-      </c>
       <c r="H29">
         <v>8</v>
       </c>
@@ -1553,9 +1484,6 @@
       <c r="E30">
         <v>5</v>
       </c>
-      <c r="F30" t="s">
-        <v>12</v>
-      </c>
       <c r="G30">
         <v>2</v>
       </c>
@@ -1626,12 +1554,6 @@
       <c r="D32">
         <v>1</v>
       </c>
-      <c r="E32" t="s">
-        <v>12</v>
-      </c>
-      <c r="F32" t="s">
-        <v>12</v>
-      </c>
       <c r="G32">
         <v>0</v>
       </c>
@@ -1705,12 +1627,6 @@
       <c r="E34">
         <v>2</v>
       </c>
-      <c r="F34" t="s">
-        <v>12</v>
-      </c>
-      <c r="G34" t="s">
-        <v>12</v>
-      </c>
       <c r="H34">
         <v>4</v>
       </c>
@@ -1895,12 +1811,6 @@
       <c r="E39">
         <v>0</v>
       </c>
-      <c r="F39" t="s">
-        <v>12</v>
-      </c>
-      <c r="G39" t="s">
-        <v>12</v>
-      </c>
       <c r="H39">
         <v>4</v>
       </c>
@@ -1933,14 +1843,8 @@
       <c r="E40">
         <v>2</v>
       </c>
-      <c r="F40" t="s">
-        <v>12</v>
-      </c>
       <c r="G40">
         <v>0</v>
-      </c>
-      <c r="H40" t="s">
-        <v>12</v>
       </c>
       <c r="I40">
         <v>5</v>
@@ -1968,9 +1872,6 @@
       <c r="D41">
         <v>8</v>
       </c>
-      <c r="E41" t="s">
-        <v>12</v>
-      </c>
       <c r="F41">
         <v>2</v>
       </c>
@@ -2009,12 +1910,6 @@
       <c r="E42">
         <v>1</v>
       </c>
-      <c r="F42" t="s">
-        <v>12</v>
-      </c>
-      <c r="G42" t="s">
-        <v>12</v>
-      </c>
       <c r="H42">
         <v>8</v>
       </c>
@@ -2164,9 +2059,6 @@
       <c r="F46">
         <v>5</v>
       </c>
-      <c r="G46" t="s">
-        <v>12</v>
-      </c>
       <c r="H46">
         <v>0</v>
       </c>
@@ -2351,9 +2243,6 @@
       <c r="E51">
         <v>2</v>
       </c>
-      <c r="F51" t="s">
-        <v>12</v>
-      </c>
       <c r="G51">
         <v>5</v>
       </c>
@@ -2459,21 +2348,6 @@
       <c r="C54">
         <v>20</v>
       </c>
-      <c r="D54" t="s">
-        <v>12</v>
-      </c>
-      <c r="E54" t="s">
-        <v>12</v>
-      </c>
-      <c r="F54" t="s">
-        <v>12</v>
-      </c>
-      <c r="G54" t="s">
-        <v>12</v>
-      </c>
-      <c r="H54" t="s">
-        <v>12</v>
-      </c>
       <c r="I54">
         <v>3</v>
       </c>
@@ -2538,9 +2412,6 @@
       <c r="D56">
         <v>8</v>
       </c>
-      <c r="E56" t="s">
-        <v>12</v>
-      </c>
       <c r="F56">
         <v>1</v>
       </c>
@@ -2617,9 +2488,6 @@
       <c r="E58">
         <v>2</v>
       </c>
-      <c r="F58" t="s">
-        <v>12</v>
-      </c>
       <c r="G58">
         <v>0</v>
       </c>
@@ -2693,9 +2561,6 @@
       <c r="E60">
         <v>4</v>
       </c>
-      <c r="F60" t="s">
-        <v>12</v>
-      </c>
       <c r="G60">
         <v>0</v>
       </c>
@@ -2731,9 +2596,6 @@
       <c r="E61">
         <v>0</v>
       </c>
-      <c r="F61" t="s">
-        <v>12</v>
-      </c>
       <c r="G61">
         <v>2</v>
       </c>
@@ -2807,17 +2669,11 @@
       <c r="E63">
         <v>3</v>
       </c>
-      <c r="F63" t="s">
-        <v>12</v>
-      </c>
       <c r="G63">
         <v>7</v>
       </c>
       <c r="H63">
         <v>1</v>
-      </c>
-      <c r="I63" t="s">
-        <v>12</v>
       </c>
       <c r="J63">
         <v>19</v>
@@ -2883,17 +2739,8 @@
       <c r="E65">
         <v>5</v>
       </c>
-      <c r="F65" t="s">
-        <v>12</v>
-      </c>
       <c r="G65">
         <v>0</v>
-      </c>
-      <c r="H65" t="s">
-        <v>12</v>
-      </c>
-      <c r="I65" t="s">
-        <v>12</v>
       </c>
       <c r="J65">
         <v>13</v>
@@ -2921,9 +2768,6 @@
       <c r="E66">
         <v>2</v>
       </c>
-      <c r="F66" t="s">
-        <v>12</v>
-      </c>
       <c r="G66">
         <v>0</v>
       </c>
@@ -2997,18 +2841,6 @@
       <c r="E68">
         <v>0</v>
       </c>
-      <c r="F68" t="s">
-        <v>12</v>
-      </c>
-      <c r="G68" t="s">
-        <v>12</v>
-      </c>
-      <c r="H68" t="s">
-        <v>12</v>
-      </c>
-      <c r="I68" t="s">
-        <v>12</v>
-      </c>
       <c r="J68">
         <v>4</v>
       </c>
@@ -3035,9 +2867,6 @@
       <c r="E69">
         <v>3</v>
       </c>
-      <c r="F69" t="s">
-        <v>12</v>
-      </c>
       <c r="G69">
         <v>6</v>
       </c>
@@ -3111,9 +2940,6 @@
       <c r="E71">
         <v>7</v>
       </c>
-      <c r="F71" t="s">
-        <v>12</v>
-      </c>
       <c r="G71">
         <v>8</v>
       </c>
@@ -3149,9 +2975,6 @@
       <c r="E72">
         <v>1</v>
       </c>
-      <c r="F72" t="s">
-        <v>12</v>
-      </c>
       <c r="G72">
         <v>0</v>
       </c>
@@ -3184,9 +3007,6 @@
       <c r="D73">
         <v>8</v>
       </c>
-      <c r="E73" t="s">
-        <v>12</v>
-      </c>
       <c r="F73">
         <v>0</v>
       </c>
@@ -3225,9 +3045,6 @@
       <c r="E74">
         <v>3</v>
       </c>
-      <c r="F74" t="s">
-        <v>12</v>
-      </c>
       <c r="G74">
         <v>8</v>
       </c>
@@ -3263,12 +3080,6 @@
       <c r="E75">
         <v>1</v>
       </c>
-      <c r="F75" t="s">
-        <v>12</v>
-      </c>
-      <c r="G75" t="s">
-        <v>12</v>
-      </c>
       <c r="H75">
         <v>6</v>
       </c>
@@ -3301,9 +3112,6 @@
       <c r="E76">
         <v>5</v>
       </c>
-      <c r="F76" t="s">
-        <v>12</v>
-      </c>
       <c r="G76">
         <v>8</v>
       </c>
@@ -3339,12 +3147,6 @@
       <c r="E77">
         <v>0</v>
       </c>
-      <c r="F77" t="s">
-        <v>12</v>
-      </c>
-      <c r="G77" t="s">
-        <v>12</v>
-      </c>
       <c r="H77">
         <v>0</v>
       </c>
@@ -3374,12 +3176,6 @@
       <c r="D78">
         <v>8</v>
       </c>
-      <c r="E78" t="s">
-        <v>12</v>
-      </c>
-      <c r="F78" t="s">
-        <v>12</v>
-      </c>
       <c r="G78">
         <v>2</v>
       </c>
@@ -3400,6 +3196,18 @@
       </c>
     </row>
   </sheetData>
+  <conditionalFormatting sqref="N2:X78">
+    <cfRule type="colorScale" priority="1">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/Book2.xlsx
+++ b/Book2.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\GitHub\Kaszcz\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Git\Kaszcz\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7183440C-C2AB-41A1-B2C1-063C497F3C62}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E4D94D23-C0F4-4DE1-8258-31C285072098}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" xr2:uid="{2989C81E-8F57-4ADC-A9B1-D4D66B2E3046}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{2989C81E-8F57-4ADC-A9B1-D4D66B2E3046}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="13">
   <si>
     <t>Album</t>
   </si>
@@ -72,6 +72,9 @@
   </si>
   <si>
     <t>Ocena</t>
+  </si>
+  <si>
+    <t>&gt;79</t>
   </si>
 </sst>
 </file>
@@ -424,15 +427,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E8FF5086-F690-4870-B6B3-C6D623B4DF3D}">
-  <dimension ref="A1:L78"/>
+  <dimension ref="A1:R78"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="AC31" sqref="AC31"/>
+    <sheetView tabSelected="1" topLeftCell="D1" zoomScale="113" workbookViewId="0">
+      <selection activeCell="O2" sqref="O2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -469,8 +472,20 @@
       <c r="L1" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M1" t="s">
+        <v>12</v>
+      </c>
+      <c r="N1">
+        <v>4</v>
+      </c>
+      <c r="O1">
+        <v>4.5</v>
+      </c>
+      <c r="P1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>262253</v>
       </c>
@@ -501,8 +516,28 @@
       <c r="L2">
         <v>2</v>
       </c>
-    </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M2">
+        <f>IF(K2&gt;79,1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="N2">
+        <f>IF($L2=N$1,1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="O2">
+        <f t="shared" ref="O2:P17" si="0">IF($L2=O$1,1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="P2">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="Q2">
+        <f>SUM(M2:M78)</f>
+        <v>9</v>
+      </c>
+    </row>
+    <row r="3" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>262320</v>
       </c>
@@ -539,8 +574,31 @@
       <c r="L3">
         <v>5</v>
       </c>
-    </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M3">
+        <f t="shared" ref="M3:M66" si="1">IF(K3&gt;79,1,0)</f>
+        <v>1</v>
+      </c>
+      <c r="N3">
+        <f t="shared" ref="N3:P34" si="2">IF($L3=N$1,1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="O3">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="P3">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="Q3">
+        <f>SUM(P2:P78)</f>
+        <v>6</v>
+      </c>
+      <c r="R3">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>262308</v>
       </c>
@@ -571,8 +629,31 @@
       <c r="L4">
         <v>3</v>
       </c>
-    </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M4">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="N4">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="O4">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="P4">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="Q4">
+        <f>SUM(N2:N78)</f>
+        <v>13</v>
+      </c>
+      <c r="R4">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="5" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>262341</v>
       </c>
@@ -609,8 +690,31 @@
       <c r="L5">
         <v>5</v>
       </c>
-    </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M5">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="N5">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="O5">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="P5">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="Q5">
+        <f>SUM(O2:O78)</f>
+        <v>9</v>
+      </c>
+      <c r="R5">
+        <v>4.5</v>
+      </c>
+    </row>
+    <row r="6" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>262302</v>
       </c>
@@ -644,8 +748,24 @@
       <c r="L6">
         <v>3.5</v>
       </c>
-    </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M6">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="N6">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="O6">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="P6">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>262286</v>
       </c>
@@ -682,8 +802,24 @@
       <c r="L7">
         <v>4.5</v>
       </c>
-    </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M7">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="N7">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="O7">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="P7">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>244585</v>
       </c>
@@ -717,8 +853,24 @@
       <c r="L8">
         <v>3.5</v>
       </c>
-    </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M8">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="N8">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="O8">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="P8">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>262283</v>
       </c>
@@ -752,8 +904,24 @@
       <c r="L9">
         <v>3.5</v>
       </c>
-    </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M9">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="N9">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="O9">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="P9">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>262323</v>
       </c>
@@ -784,8 +952,24 @@
       <c r="L10">
         <v>3.5</v>
       </c>
-    </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M10">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="N10">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="O10">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="P10">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>262294</v>
       </c>
@@ -822,8 +1006,24 @@
       <c r="L11">
         <v>2</v>
       </c>
-    </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M11">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="N11">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="O11">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="P11">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>262225</v>
       </c>
@@ -857,8 +1057,24 @@
       <c r="L12">
         <v>3.5</v>
       </c>
-    </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M12">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="N12">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="O12">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="P12">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>262221</v>
       </c>
@@ -892,8 +1108,24 @@
       <c r="L13">
         <v>2</v>
       </c>
-    </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M13">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="N13">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="O13">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="P13">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>262314</v>
       </c>
@@ -927,8 +1159,24 @@
       <c r="L14">
         <v>3.5</v>
       </c>
-    </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M14">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="N14">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="O14">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="P14">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>254637</v>
       </c>
@@ -962,8 +1210,24 @@
       <c r="L15">
         <v>3</v>
       </c>
-    </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M15">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="N15">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="O15">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="P15">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>262322</v>
       </c>
@@ -1000,8 +1264,24 @@
       <c r="L16">
         <v>3.5</v>
       </c>
-    </row>
-    <row r="17" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M16">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="N16">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="O16">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="P16">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>254362</v>
       </c>
@@ -1032,8 +1312,24 @@
       <c r="L17">
         <v>3</v>
       </c>
-    </row>
-    <row r="18" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M17">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="N17">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="O17">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="P17">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>262270</v>
       </c>
@@ -1070,8 +1366,24 @@
       <c r="L18">
         <v>3.5</v>
       </c>
-    </row>
-    <row r="19" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M18">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="N18">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="O18">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="P18">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A19">
         <v>262279</v>
       </c>
@@ -1105,8 +1417,24 @@
       <c r="L19">
         <v>3.5</v>
       </c>
-    </row>
-    <row r="20" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M19">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="N19">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="O19">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="P19">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A20">
         <v>262268</v>
       </c>
@@ -1143,8 +1471,24 @@
       <c r="L20">
         <v>4</v>
       </c>
-    </row>
-    <row r="21" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M20">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="N20">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="O20">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="P20">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A21">
         <v>262290</v>
       </c>
@@ -1178,8 +1522,24 @@
       <c r="L21">
         <v>3.5</v>
       </c>
-    </row>
-    <row r="22" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M21">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="N21">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="O21">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="P21">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A22">
         <v>262316</v>
       </c>
@@ -1216,8 +1576,24 @@
       <c r="L22">
         <v>4.5</v>
       </c>
-    </row>
-    <row r="23" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M22">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="N22">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="O22">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="P22">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A23">
         <v>265719</v>
       </c>
@@ -1251,8 +1627,24 @@
       <c r="L23">
         <v>3.5</v>
       </c>
-    </row>
-    <row r="24" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M23">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="N23">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="O23">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="P23">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A24">
         <v>262318</v>
       </c>
@@ -1289,8 +1681,24 @@
       <c r="L24">
         <v>3.5</v>
       </c>
-    </row>
-    <row r="25" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M24">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="N24">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="O24">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="P24">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A25">
         <v>262328</v>
       </c>
@@ -1327,8 +1735,24 @@
       <c r="L25">
         <v>4</v>
       </c>
-    </row>
-    <row r="26" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M25">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="N25">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="O25">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="P25">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A26">
         <v>262312</v>
       </c>
@@ -1359,8 +1783,24 @@
       <c r="L26">
         <v>3.5</v>
       </c>
-    </row>
-    <row r="27" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M26">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="N26">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="O26">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="P26">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A27">
         <v>262282</v>
       </c>
@@ -1397,8 +1837,24 @@
       <c r="L27">
         <v>5</v>
       </c>
-    </row>
-    <row r="28" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M27">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="N27">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="O27">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="P27">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="28" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A28">
         <v>262329</v>
       </c>
@@ -1435,8 +1891,24 @@
       <c r="L28">
         <v>3.5</v>
       </c>
-    </row>
-    <row r="29" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M28">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="N28">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="O28">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="P28">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A29">
         <v>262321</v>
       </c>
@@ -1467,8 +1939,24 @@
       <c r="L29">
         <v>4.5</v>
       </c>
-    </row>
-    <row r="30" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M29">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="N29">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="O29">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="P29">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A30">
         <v>262338</v>
       </c>
@@ -1502,8 +1990,24 @@
       <c r="L30">
         <v>3.5</v>
       </c>
-    </row>
-    <row r="31" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M30">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="N30">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="O30">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="P30">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A31">
         <v>262295</v>
       </c>
@@ -1540,8 +2044,24 @@
       <c r="L31">
         <v>4.5</v>
       </c>
-    </row>
-    <row r="32" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M31">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="N31">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="O31">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="P31">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A32">
         <v>255734</v>
       </c>
@@ -1572,8 +2092,24 @@
       <c r="L32">
         <v>2</v>
       </c>
-    </row>
-    <row r="33" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M32">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="N32">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="O32">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="P32">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A33">
         <v>262337</v>
       </c>
@@ -1610,8 +2146,24 @@
       <c r="L33">
         <v>5</v>
       </c>
-    </row>
-    <row r="34" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M33">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="N33">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="O33">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="P33">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="34" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A34">
         <v>262300</v>
       </c>
@@ -1642,8 +2194,24 @@
       <c r="L34">
         <v>3.5</v>
       </c>
-    </row>
-    <row r="35" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M34">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="N34">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="O34">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="P34">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A35">
         <v>262303</v>
       </c>
@@ -1680,8 +2248,24 @@
       <c r="L35">
         <v>4.5</v>
       </c>
-    </row>
-    <row r="36" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M35">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="N35">
+        <f t="shared" ref="N35:P78" si="3">IF($L35=N$1,1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="O35">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+      <c r="P35">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A36">
         <v>255298</v>
       </c>
@@ -1718,8 +2302,24 @@
       <c r="L36">
         <v>2</v>
       </c>
-    </row>
-    <row r="37" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M36">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="N36">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="O36">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="P36">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A37">
         <v>262301</v>
       </c>
@@ -1756,8 +2356,24 @@
       <c r="L37">
         <v>3.5</v>
       </c>
-    </row>
-    <row r="38" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M37">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="N37">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="O37">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="P37">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A38">
         <v>262288</v>
       </c>
@@ -1794,8 +2410,24 @@
       <c r="L38">
         <v>4.5</v>
       </c>
-    </row>
-    <row r="39" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M38">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="N38">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="O38">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+      <c r="P38">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="39" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A39">
         <v>262297</v>
       </c>
@@ -1826,8 +2458,24 @@
       <c r="L39">
         <v>3.5</v>
       </c>
-    </row>
-    <row r="40" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M39">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="N39">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="O39">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="P39">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="40" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A40">
         <v>262276</v>
       </c>
@@ -1858,8 +2506,24 @@
       <c r="L40">
         <v>3</v>
       </c>
-    </row>
-    <row r="41" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M40">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="N40">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="O40">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="P40">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="41" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A41">
         <v>221086</v>
       </c>
@@ -1893,8 +2557,24 @@
       <c r="L41">
         <v>4</v>
       </c>
-    </row>
-    <row r="42" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M41">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="N41">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+      <c r="O41">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="P41">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A42">
         <v>262311</v>
       </c>
@@ -1925,8 +2605,24 @@
       <c r="L42">
         <v>4</v>
       </c>
-    </row>
-    <row r="43" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M42">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="N42">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+      <c r="O42">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="P42">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A43">
         <v>262296</v>
       </c>
@@ -1963,8 +2659,24 @@
       <c r="L43">
         <v>5</v>
       </c>
-    </row>
-    <row r="44" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M43">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="N43">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="O43">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="P43">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="44" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A44">
         <v>262219</v>
       </c>
@@ -2001,8 +2713,24 @@
       <c r="L44">
         <v>4</v>
       </c>
-    </row>
-    <row r="45" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M44">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="N44">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+      <c r="O44">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="P44">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A45">
         <v>257382</v>
       </c>
@@ -2039,8 +2767,24 @@
       <c r="L45">
         <v>4</v>
       </c>
-    </row>
-    <row r="46" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M45">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="N45">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+      <c r="O45">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="P45">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A46">
         <v>262212</v>
       </c>
@@ -2074,8 +2818,24 @@
       <c r="L46">
         <v>3</v>
       </c>
-    </row>
-    <row r="47" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M46">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="N46">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="O46">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="P46">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A47">
         <v>262267</v>
       </c>
@@ -2112,8 +2872,24 @@
       <c r="L47">
         <v>3</v>
       </c>
-    </row>
-    <row r="48" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M47">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="N47">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="O47">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="P47">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A48">
         <v>262275</v>
       </c>
@@ -2150,8 +2926,24 @@
       <c r="L48">
         <v>3.5</v>
       </c>
-    </row>
-    <row r="49" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M48">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="N48">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="O48">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="P48">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A49">
         <v>262292</v>
       </c>
@@ -2188,8 +2980,24 @@
       <c r="L49">
         <v>3.5</v>
       </c>
-    </row>
-    <row r="50" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M49">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="N49">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="O49">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="P49">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A50">
         <v>262273</v>
       </c>
@@ -2226,8 +3034,24 @@
       <c r="L50">
         <v>3.5</v>
       </c>
-    </row>
-    <row r="51" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M50">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="N50">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="O50">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="P50">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A51">
         <v>262278</v>
       </c>
@@ -2261,8 +3085,24 @@
       <c r="L51">
         <v>4</v>
       </c>
-    </row>
-    <row r="52" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M51">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="N51">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+      <c r="O51">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="P51">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A52">
         <v>262222</v>
       </c>
@@ -2299,8 +3139,24 @@
       <c r="L52">
         <v>3</v>
       </c>
-    </row>
-    <row r="53" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M52">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="N52">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="O52">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="P52">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A53">
         <v>262336</v>
       </c>
@@ -2337,8 +3193,24 @@
       <c r="L53">
         <v>2</v>
       </c>
-    </row>
-    <row r="54" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M53">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="N53">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="O53">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="P53">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A54">
         <v>255908</v>
       </c>
@@ -2360,8 +3232,24 @@
       <c r="L54">
         <v>2</v>
       </c>
-    </row>
-    <row r="55" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M54">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="N54">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="O54">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="P54">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="55" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A55">
         <v>268951</v>
       </c>
@@ -2398,8 +3286,24 @@
       <c r="L55">
         <v>4</v>
       </c>
-    </row>
-    <row r="56" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M55">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="N55">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+      <c r="O55">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="P55">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="56" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A56">
         <v>262285</v>
       </c>
@@ -2433,8 +3337,24 @@
       <c r="L56">
         <v>3.5</v>
       </c>
-    </row>
-    <row r="57" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M56">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="N56">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="O56">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="P56">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="57" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A57">
         <v>262280</v>
       </c>
@@ -2471,8 +3391,24 @@
       <c r="L57">
         <v>4.5</v>
       </c>
-    </row>
-    <row r="58" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M57">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="N57">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="O57">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+      <c r="P57">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A58">
         <v>262218</v>
       </c>
@@ -2506,8 +3442,24 @@
       <c r="L58">
         <v>3.5</v>
       </c>
-    </row>
-    <row r="59" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M58">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="N58">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="O58">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="P58">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A59">
         <v>262335</v>
       </c>
@@ -2544,8 +3496,24 @@
       <c r="L59">
         <v>5</v>
       </c>
-    </row>
-    <row r="60" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M59">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="N59">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="O59">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="P59">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="60" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A60">
         <v>262339</v>
       </c>
@@ -2579,8 +3547,24 @@
       <c r="L60">
         <v>3.5</v>
       </c>
-    </row>
-    <row r="61" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M60">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="N60">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="O60">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="P60">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="61" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A61">
         <v>262307</v>
       </c>
@@ -2614,8 +3598,24 @@
       <c r="L61">
         <v>3.5</v>
       </c>
-    </row>
-    <row r="62" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M61">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="N61">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="O61">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="P61">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A62">
         <v>255713</v>
       </c>
@@ -2652,8 +3652,24 @@
       <c r="L62">
         <v>4</v>
       </c>
-    </row>
-    <row r="63" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M62">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="N62">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+      <c r="O62">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="P62">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A63">
         <v>262340</v>
       </c>
@@ -2684,8 +3700,24 @@
       <c r="L63">
         <v>3</v>
       </c>
-    </row>
-    <row r="64" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M63">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="N63">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="O63">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="P63">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A64">
         <v>262281</v>
       </c>
@@ -2722,8 +3754,24 @@
       <c r="L64">
         <v>4</v>
       </c>
-    </row>
-    <row r="65" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M64">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="N64">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+      <c r="O64">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="P64">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A65">
         <v>262229</v>
       </c>
@@ -2751,8 +3799,24 @@
       <c r="L65">
         <v>2</v>
       </c>
-    </row>
-    <row r="66" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M65">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="N65">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="O65">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="P65">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A66">
         <v>262309</v>
       </c>
@@ -2786,8 +3850,24 @@
       <c r="L66">
         <v>3.5</v>
       </c>
-    </row>
-    <row r="67" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M66">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="N66">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="O66">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="P66">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="67" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A67">
         <v>233124</v>
       </c>
@@ -2824,8 +3904,24 @@
       <c r="L67">
         <v>3.5</v>
       </c>
-    </row>
-    <row r="68" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M67">
+        <f t="shared" ref="M67:M78" si="4">IF(K67&gt;79,1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="N67">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="O67">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="P67">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="68" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A68">
         <v>262315</v>
       </c>
@@ -2850,8 +3946,24 @@
       <c r="L68">
         <v>2</v>
       </c>
-    </row>
-    <row r="69" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M68">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="N68">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="O68">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="P68">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A69">
         <v>262269</v>
       </c>
@@ -2885,8 +3997,24 @@
       <c r="L69">
         <v>4</v>
       </c>
-    </row>
-    <row r="70" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M69">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="N69">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+      <c r="O69">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="P69">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A70">
         <v>257787</v>
       </c>
@@ -2923,8 +4051,24 @@
       <c r="L70">
         <v>4.5</v>
       </c>
-    </row>
-    <row r="71" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M70">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="N70">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="O70">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+      <c r="P70">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A71">
         <v>262304</v>
       </c>
@@ -2958,8 +4102,24 @@
       <c r="L71">
         <v>4.5</v>
       </c>
-    </row>
-    <row r="72" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M71">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="N71">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="O71">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+      <c r="P71">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A72">
         <v>262330</v>
       </c>
@@ -2993,8 +4153,24 @@
       <c r="L72">
         <v>2</v>
       </c>
-    </row>
-    <row r="73" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M72">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="N72">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="O72">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="P72">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="73" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A73">
         <v>262317</v>
       </c>
@@ -3028,8 +4204,24 @@
       <c r="L73">
         <v>3</v>
       </c>
-    </row>
-    <row r="74" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M73">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="N73">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="O73">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="P73">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A74">
         <v>262333</v>
       </c>
@@ -3063,8 +4255,24 @@
       <c r="L74">
         <v>4</v>
       </c>
-    </row>
-    <row r="75" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M74">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="N74">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+      <c r="O74">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="P74">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A75">
         <v>262226</v>
       </c>
@@ -3095,8 +4303,24 @@
       <c r="L75">
         <v>3.5</v>
       </c>
-    </row>
-    <row r="76" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M75">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="N75">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="O75">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="P75">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A76">
         <v>262291</v>
       </c>
@@ -3130,8 +4354,24 @@
       <c r="L76">
         <v>4</v>
       </c>
-    </row>
-    <row r="77" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M76">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="N76">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+      <c r="O76">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="P76">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="77" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A77">
         <v>262227</v>
       </c>
@@ -3162,8 +4402,24 @@
       <c r="L77">
         <v>3</v>
       </c>
-    </row>
-    <row r="78" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M77">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="N77">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="O77">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="P77">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="78" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A78">
         <v>262284</v>
       </c>
@@ -3194,9 +4450,25 @@
       <c r="L78">
         <v>3.5</v>
       </c>
+      <c r="M78">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="N78">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="O78">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="P78">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
     </row>
   </sheetData>
-  <conditionalFormatting sqref="N2:X78">
+  <conditionalFormatting sqref="Q2:X78">
     <cfRule type="colorScale" priority="1">
       <colorScale>
         <cfvo type="min"/>
